--- a/01_Input/00_CO Validation/Timor-Leste - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Timor-Leste - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="184" documentId="11_6A2C6EB666106EDC3B71E986BCBC267D10A82215" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95C89D8D-76CA-4B55-9DA5-49D9E5FE9FC7}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="11_6A2C6EB666106EDC3B71E986BCBC267D10A82215" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A630EA59-3DC7-4213-B2DC-6040A3DC4258}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>Project ID</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t>Tag</t>
   </si>
   <si>
     <t>SEH Taxonomy</t>
@@ -402,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -462,6 +465,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -470,7 +567,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -519,9 +616,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -531,39 +625,12 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -594,7 +661,75 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -903,8 +1038,8 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="I6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -914,291 +1049,316 @@
     <col min="5" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="8" width="12.7109375" style="10" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="62" style="6" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:19" ht="47.25" customHeight="1">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="N1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="O1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="P1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="Q1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="R1" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="91.5">
-      <c r="A2" s="33">
+      <c r="S1" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="91.5">
+      <c r="A2" s="48">
         <v>126532</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="19">
+      <c r="C2" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="46">
         <v>2700742</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="21">
+      <c r="F2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="20">
         <v>0</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="I2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="23">
+      <c r="J2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="33">
         <v>0.47</v>
       </c>
-      <c r="L2" s="22"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="12"/>
-      <c r="O2" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+    </row>
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="60.75">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="46">
+        <v>2700742</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="60.75">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="19">
-        <v>2700742</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="12"/>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="51" customHeight="1">
-      <c r="A4" s="25">
+      <c r="P3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="78" customHeight="1">
+      <c r="A4" s="44">
         <v>145070</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="19">
+      <c r="C4" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="18">
         <v>129875</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="19">
+      <c r="F4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="18">
         <v>0</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>100</v>
       </c>
-      <c r="I4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="27" t="s">
+      <c r="I4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="28">
+      <c r="J4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="22">
         <v>1</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="29"/>
-    </row>
-    <row r="5" spans="1:19" ht="30" customHeight="1">
-      <c r="A5" s="33">
+      <c r="L4" s="21"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+    </row>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="53">
         <v>1000417</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="19">
+      <c r="B5" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="46">
         <v>700000</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="30" t="s">
+      <c r="E5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="19">
+      <c r="F5" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="18">
         <v>0</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>10600</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="33" t="s">
+      <c r="I5" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="27"/>
-      <c r="O5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="137.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="19">
+      <c r="J5" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="41"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="137.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="46">
         <v>1000000</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="19">
+      <c r="F6" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="18">
         <v>0</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="21">
         <v>650000</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="27"/>
-      <c r="O6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="I6" s="40" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="91.5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="31">
+      <c r="J6" s="44"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+    </row>
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="91.5">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46">
         <v>2000000</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="21">
+        <v>18060</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="45"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="22">
-        <v>18060</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="27"/>
-      <c r="O7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" t="s">
-        <v>45</v>
-      </c>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-  </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O7" xr:uid="{80A1F553-AA62-46AA-A6C1-B14FB0EE8EC4}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
@@ -1291,23 +1451,23 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="91.5">
-      <c r="A2" s="38">
+      <c r="A2" s="26">
         <v>126532</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="9">
         <v>2700742</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="15">
         <v>0</v>
@@ -1316,40 +1476,40 @@
         <v>1000</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60.75">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="9">
         <v>2700742</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15">
         <v>600</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="51" customHeight="1">
@@ -1357,52 +1517,52 @@
         <v>145070</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="9">
         <v>129875</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="15">
         <v>0</v>
       </c>
       <c r="H4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1">
-      <c r="A5" s="36">
+      <c r="A5" s="24">
         <v>1000417</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="37"/>
+      <c r="B5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="25"/>
       <c r="D5" s="9">
         <v>700000</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
@@ -1411,24 +1571,24 @@
         <v>1000</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="91.5">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="9">
         <v>1000000</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="9">
         <v>0</v>
@@ -1437,22 +1597,22 @@
         <v>3</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="36"/>
+        <v>55</v>
+      </c>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="60.75">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="10">
         <v>2000000</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" s="10">
         <v>3</v>
@@ -1461,9 +1621,9 @@
         <v>15</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="36"/>
+        <v>57</v>
+      </c>
+      <c r="J7" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1510,160 +1670,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="41" t="s">
-        <v>59</v>
+      <c r="A2" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="41"/>
+      <c r="A3" s="29"/>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="29"/>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="42" t="s">
-        <v>64</v>
+      <c r="A5" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="42"/>
+      <c r="A6" s="30"/>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="30"/>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="42"/>
+      <c r="A8" s="30"/>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="42"/>
+      <c r="A9" s="30"/>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="43" t="s">
-        <v>72</v>
+      <c r="A10" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="31"/>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="44" t="s">
-        <v>76</v>
+      <c r="A12" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="44"/>
+      <c r="A13" s="32"/>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="44"/>
+      <c r="A14" s="32"/>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1687,19 +1847,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd739a91710fed73edeed3c312976475">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="829e6ebd84bdd7e43dc34d34aecb984e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -1723,6 +1872,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1798,6 +1948,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fb9e4d32-074f-4c04-81ef-e811753dfd59" elementFormDefault="qualified">
@@ -1940,14 +2095,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84E41ADD-8945-43E3-A344-2BC56A5A4FF6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA980070-F43E-4A4D-AE3A-45EBDF1E7F16}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21C7E208-C61E-4AAF-AAB6-F295214DA82E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F92B5546-6B18-4887-BB8E-96BB12BCED7E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA980070-F43E-4A4D-AE3A-45EBDF1E7F16}"/>
 </file>
--- a/01_Input/00_CO Validation/Timor-Leste - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Timor-Leste - Energy Projects.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="216" documentId="11_6A2C6EB666106EDC3B71E986BCBC267D10A82215" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A630EA59-3DC7-4213-B2DC-6040A3DC4258}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="11_6A2C6EB666106EDC3B71E986BCBC267D10A82215" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{087F7AC9-EE55-4C9C-B047-4C87CC010C56}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Projects" sheetId="1" r:id="rId2"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
+    <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>Project ID</t>
   </si>
@@ -116,6 +117,12 @@
     <t>Accelerating just energy transition</t>
   </si>
   <si>
+    <t>Education Services</t>
+  </si>
+  <si>
+    <t>Number of students benefitted</t>
+  </si>
+  <si>
     <t>Water Services</t>
   </si>
   <si>
@@ -156,6 +163,9 @@
   </si>
   <si>
     <t>Target beneficiaries benefiting from solar lights and improved cooking stoves</t>
+  </si>
+  <si>
+    <t>10600 HH</t>
   </si>
   <si>
     <t>Target beneficiaries benefiting from solar lights and improved cooking stoves is 10,600 people
@@ -175,10 +185,10 @@
 Solarization of national warehouse for medicines and medical equipment (SAMES) and 2 community health centers. Estimated beneficiaries (650,000 people)</t>
   </si>
   <si>
+    <t>h</t>
+  </si>
+  <si>
     <t>Renewable Energy</t>
-  </si>
-  <si>
-    <t>Education Services</t>
   </si>
   <si>
     <t>Solarization of ICT labs in 15 public secondary/vocation schools with estimated beneficiaries (18,060 people)</t>
@@ -567,7 +577,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -634,6 +644,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,75 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1034,12 +1050,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E09FFFD-BF9A-4603-B1BD-9865A24B4529}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F479CD-277A-444C-9A31-93368D511EC2}">
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:C7"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1048,7 +1064,7 @@
     <col min="4" max="4" width="12.7109375" style="10" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="8" width="12.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="9" max="9" width="65.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="62" style="6" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
@@ -1058,75 +1074,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="91.5">
-      <c r="A2" s="48">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="45.75">
+      <c r="A2" s="39">
         <v>126532</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="37">
         <v>2700742</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -1147,7 +1163,7 @@
       <c r="J2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="24">
         <v>0.47</v>
       </c>
       <c r="L2" s="21"/>
@@ -1163,13 +1179,11 @@
       <c r="R2" s="21"/>
       <c r="S2" s="21"/>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="60.75">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="46">
-        <v>2700742</v>
-      </c>
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="30.75">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="19" t="s">
         <v>27</v>
       </c>
@@ -1177,11 +1191,401 @@
         <v>28</v>
       </c>
       <c r="G3" s="20"/>
+      <c r="H3" s="20">
+        <v>1712</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="60.75">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+    </row>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="78" customHeight="1">
+      <c r="A5" s="35">
+        <v>145070</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="18">
+        <v>129875</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>100</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="22">
+        <v>1</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="44">
+        <v>1000417</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="37">
+        <v>700000</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+    </row>
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="121.5">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="37">
+        <v>1000000</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
+        <v>650000</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+    </row>
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="91.5">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37">
+        <v>2000000</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="21">
+        <v>18060</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S8" xr:uid="{386D73ED-6A41-4443-91ED-8CD70BAAD633}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{7A5099D1-2ED5-43E4-AD13-261638184DF9}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{1B26F938-4EBD-46CC-831A-597505A8B9BC}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P8" xr:uid="{5BEEAE34-0BCA-4954-A953-F33D3CEC6CD0}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{E8931478-6827-48AC-B5DC-292C1313AC0D}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{779FF747-E687-4012-AE8E-69AFE9D31B33}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{33F8B1CB-D415-4A02-B636-DAE94AE482E9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F1CF943B-2F7C-4B2D-B1D7-BC5BF3B5A006}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E09FFFD-BF9A-4603-B1BD-9865A24B4529}">
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="10" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="65.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="62" style="6" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="47.25" customHeight="1">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="91.5">
+      <c r="A2" s="39">
+        <v>126532</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="37">
+        <v>2700742</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="24">
+        <v>0.47</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+    </row>
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="60.75">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>25</v>
@@ -1194,30 +1598,30 @@
         <v>26</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="78" customHeight="1">
-      <c r="A4" s="44">
+      <c r="A4" s="35">
         <v>145070</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>33</v>
+      <c r="B4" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="18">
         <v>129875</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" s="18">
         <v>0</v>
@@ -1226,16 +1630,16 @@
         <v>100</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="K4" s="22">
         <v>1</v>
       </c>
       <c r="L4" s="21"/>
-      <c r="M4" s="34"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
@@ -1244,35 +1648,35 @@
       <c r="S4" s="21"/>
     </row>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="53">
+      <c r="A5" s="44">
         <v>1000417</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="46">
+      <c r="B5" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="37">
         <v>700000</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="G5" s="18">
         <v>0</v>
       </c>
-      <c r="H5" s="18">
-        <v>10600</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="41"/>
+      <c r="H5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="32"/>
       <c r="L5" s="23"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -1280,24 +1684,24 @@
         <v>26</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="137.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="46">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="37">
         <v>1000000</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="G6" s="18">
         <v>0</v>
@@ -1305,11 +1709,11 @@
       <c r="H6" s="21">
         <v>650000</v>
       </c>
-      <c r="I6" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="41"/>
+      <c r="I6" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="23"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
@@ -1317,34 +1721,34 @@
         <v>26</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="91.5">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37">
         <v>2000000</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="21">
         <v>18060</v>
       </c>
-      <c r="I7" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="41"/>
+      <c r="I7" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="32"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
@@ -1352,7 +1756,7 @@
         <v>26</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
@@ -1396,7 +1800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -1451,13 +1855,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="91.5">
-      <c r="A2" s="26">
+      <c r="A2" s="51">
         <v>126532</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="52" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="9">
@@ -1482,34 +1886,34 @@
         <v>25</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60.75">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="28"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="9">
         <v>2700742</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15">
         <v>600</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="51" customHeight="1">
@@ -1517,10 +1921,10 @@
         <v>145070</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="9">
         <v>129875</v>
@@ -1529,32 +1933,32 @@
         <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" s="15">
         <v>0</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1">
-      <c r="A5" s="24">
+      <c r="A5" s="49">
         <v>1000417</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="25"/>
+      <c r="B5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="50"/>
       <c r="D5" s="9">
         <v>700000</v>
       </c>
@@ -1562,7 +1966,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
@@ -1571,24 +1975,24 @@
         <v>1000</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="91.5">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="9">
         <v>1000000</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G6" s="9">
         <v>0</v>
@@ -1597,22 +2001,22 @@
         <v>3</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="24"/>
+        <v>58</v>
+      </c>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="1:11" ht="60.75">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="10">
         <v>2000000</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G7" s="10">
         <v>3</v>
@@ -1621,9 +2025,9 @@
         <v>15</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="J7" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1655,7 +2059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1670,160 +2074,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="29" t="s">
-        <v>60</v>
+      <c r="A2" s="54" t="s">
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="29"/>
+      <c r="A3" s="54"/>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="54"/>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="30" t="s">
-        <v>65</v>
+      <c r="A5" s="55" t="s">
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="55"/>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="55"/>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="55"/>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="30"/>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="55"/>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="31" t="s">
-        <v>73</v>
+      <c r="A10" s="56" t="s">
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="56"/>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="32" t="s">
-        <v>77</v>
+      <c r="A12" s="57" t="s">
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="32"/>
+      <c r="A13" s="57"/>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="32"/>
+      <c r="A14" s="57"/>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1838,15 +2242,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2095,6 +2490,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2107,11 +2511,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84E41ADD-8945-43E3-A344-2BC56A5A4FF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21C7E208-C61E-4AAF-AAB6-F295214DA82E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21C7E208-C61E-4AAF-AAB6-F295214DA82E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84E41ADD-8945-43E3-A344-2BC56A5A4FF6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/01_Input/00_CO Validation/Timor-Leste - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Timor-Leste - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27307"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="238" documentId="11_6A2C6EB666106EDC3B71E986BCBC267D10A82215" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{087F7AC9-EE55-4C9C-B047-4C87CC010C56}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="11_6A2C6EB666106EDC3B71E986BCBC267D10A82215" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98F6E697-7AD7-4D8F-885B-D715D934C598}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="101">
   <si>
     <t>Project ID</t>
   </si>
@@ -69,10 +69,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments </t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -93,30 +90,48 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
     <t>The ACCESS project</t>
   </si>
   <si>
     <t>http://open.undp.org/projects/00126532</t>
   </si>
   <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of rural HH accessed to solar lightings</t>
+  </si>
+  <si>
+    <t>1000 HH</t>
+  </si>
+  <si>
+    <t>Total number of people benefitted from this project is 5,341 people (female: 2,511 and male: 2,830). In addition number of students benefitted from the project (1,712 people)</t>
+  </si>
+  <si>
+    <t>KOICA</t>
+  </si>
+  <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
     <t>Electricity Access</t>
   </si>
   <si>
-    <t>Number of rural HH accessed to solar lightings</t>
-  </si>
-  <si>
-    <t>1000 HH</t>
-  </si>
-  <si>
-    <t>Total number of people benefitted from this project is 5,341 people (female: 2,511 and male: 2,830). In addition number of students benefitted from the project (1,712 people)</t>
-  </si>
-  <si>
-    <t>KOICA</t>
-  </si>
-  <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
     <t>Education Services</t>
   </si>
   <si>
@@ -163,9 +178,6 @@
   </si>
   <si>
     <t>Target beneficiaries benefiting from solar lights and improved cooking stoves</t>
-  </si>
-  <si>
-    <t>10600 HH</t>
   </si>
   <si>
     <t>Target beneficiaries benefiting from solar lights and improved cooking stoves is 10,600 people
@@ -185,9 +197,6 @@
 Solarization of national warehouse for medicines and medical equipment (SAMES) and 2 community health centers. Estimated beneficiaries (650,000 people)</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
     <t>Renewable Energy</t>
   </si>
   <si>
@@ -198,6 +207,15 @@
 3 ICT schools solarized  </t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t>10600 HH</t>
+  </si>
+  <si>
     <t>Can you provide information on this project?  Please note that the target number should reflect an estimate of the number of beneficiaries reached by the project. Details can be explained in the note</t>
   </si>
   <si>
@@ -222,43 +240,52 @@
     <t xml:space="preserve">Solarization of ICT labs in 15 public secondary/vocation schools with estimated beneficiaries (18,060 people) </t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
   </si>
   <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
-  </si>
-  <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
-  </si>
-  <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
-  </si>
-  <si>
-    <t>Access to solar water pumps</t>
-  </si>
-  <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of MW installed capacity</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -267,7 +294,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -279,13 +309,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -294,19 +321,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -322,12 +349,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,8 +397,21 @@
       <name val="Helvetica Neue"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,42 +421,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE497"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,23 +582,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -597,154 +601,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1051,372 +1077,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F479CD-277A-444C-9A31-93368D511EC2}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="J2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="8" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="10" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="65.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="62" style="6" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:25" ht="47.25" customHeight="1">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="53" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="45.75">
-      <c r="A2" s="39">
+      <c r="T1" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="4" customFormat="1" ht="60.75">
+      <c r="A2" s="37">
         <v>126532</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="37">
+      <c r="B2" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="35">
         <v>2700742</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="20">
+      <c r="E2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="18">
         <v>0</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="H2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="24">
+      <c r="I2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="22">
         <v>0.47</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-    </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="30.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="19" t="s">
+      <c r="L2" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="55"/>
+      <c r="X2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="4" customFormat="1" ht="45.75">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18">
+        <v>1712</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="55"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+    </row>
+    <row r="4" spans="1:25" s="4" customFormat="1" ht="60.75">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20">
-        <v>1712</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-    </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="60.75">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="19" t="s">
+      <c r="M4" s="47"/>
+      <c r="N4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="55"/>
+      <c r="X4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="Y4" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="4" customFormat="1" ht="78" customHeight="1">
+      <c r="A5" s="33">
+        <v>145070</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="16">
+        <v>129875</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>100</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="20">
+        <v>1</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="47"/>
+      <c r="N5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="55"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+    </row>
+    <row r="6" spans="1:25" s="4" customFormat="1" ht="60.75">
+      <c r="A6" s="42">
+        <v>1000417</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="35">
+        <v>700000</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>10600</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="47"/>
+      <c r="N6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="55"/>
+      <c r="X6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="4" customFormat="1" ht="121.5">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>650000</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="33"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="47"/>
+      <c r="N7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="55"/>
+      <c r="X7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="4" customFormat="1" ht="91.5">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35">
+        <v>2000000</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-    </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="78" customHeight="1">
-      <c r="A5" s="35">
-        <v>145070</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="18">
-        <v>129875</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>100</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="22">
-        <v>1</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-    </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="44">
-        <v>1000417</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="37">
-        <v>700000</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-    </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="121.5">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="37">
-        <v>1000000</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="21">
-        <v>650000</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-    </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="91.5">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37">
-        <v>2000000</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="21">
+      <c r="F8" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="19">
         <v>18060</v>
       </c>
-      <c r="I8" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
+      <c r="I8" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="47"/>
+      <c r="N8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="55"/>
+      <c r="X8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="19" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S8" xr:uid="{386D73ED-6A41-4443-91ED-8CD70BAAD633}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{7A5099D1-2ED5-43E4-AD13-261638184DF9}">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{7A5099D1-2ED5-43E4-AD13-261638184DF9}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{1B26F938-4EBD-46CC-831A-597505A8B9BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P8" xr:uid="{1B26F938-4EBD-46CC-831A-597505A8B9BC}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P8" xr:uid="{5BEEAE34-0BCA-4954-A953-F33D3CEC6CD0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y8" xr:uid="{5BEEAE34-0BCA-4954-A953-F33D3CEC6CD0}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{E8931478-6827-48AC-B5DC-292C1313AC0D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X8 N2:N8" xr:uid="{E8931478-6827-48AC-B5DC-292C1313AC0D}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{BECE492C-710C-49E8-9E3C-10BDCAD51DB5}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M8" xr:uid="{03EC0A59-33AD-4A38-A59F-5790EAF0FE95}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T8" xr:uid="{E80C4C84-0BAE-4A42-B940-7C66CD6D2919}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L8" xr:uid="{62EDF95F-C0FC-4DE6-AE3F-F2141A9A12CD}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{5D645D24-9CBD-4A5E-8BAB-AE797F3CDCCF}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S8" xr:uid="{D9460CF6-46EF-49D0-9567-3BA1F1DCC2EA}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1426,12 +1532,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F1CF943B-2F7C-4B2D-B1D7-BC5BF3B5A006}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E9</xm:sqref>
+          <xm:sqref>E9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4067C5F9-0F49-483B-A43E-91951C4F55C6}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1451,12 +1563,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="8" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="10" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="65.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="62" style="6" customWidth="1"/>
+    <col min="13" max="13" width="62" style="4" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" customWidth="1"/>
     <col min="18" max="18" width="11.85546875" customWidth="1"/>
@@ -1464,303 +1576,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="47.25" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="30" t="s">
+      <c r="L1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="O1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="P1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="Q1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="R1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="S1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="91.5">
-      <c r="A2" s="39">
+    </row>
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="91.5">
+      <c r="A2" s="37">
         <v>126532</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="37">
+      <c r="B2" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="35">
         <v>2700742</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="20">
+      <c r="E2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="18">
         <v>0</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="H2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="24">
+      <c r="I2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="22">
         <v>0.47</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-    </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="60.75">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="P2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+    </row>
+    <row r="3" spans="1:19" s="4" customFormat="1" ht="60.75">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+    </row>
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="78" customHeight="1">
+      <c r="A4" s="33">
+        <v>145070</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="16">
+        <v>129875</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
+        <v>100</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="20">
+        <v>1</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+    </row>
+    <row r="5" spans="1:19" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="42">
+        <v>1000417</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="35">
+        <v>700000</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="30"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+    </row>
+    <row r="6" spans="1:19" s="4" customFormat="1" ht="137.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>650000</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="33"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+    </row>
+    <row r="7" spans="1:19" s="4" customFormat="1" ht="91.5">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35">
+        <v>2000000</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-    </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="78" customHeight="1">
-      <c r="A4" s="35">
-        <v>145070</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="18">
-        <v>129875</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>100</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="22">
-        <v>1</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-    </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="44">
-        <v>1000417</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="37">
-        <v>700000</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-    </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="137.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="37">
-        <v>1000000</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21">
-        <v>650000</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-    </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="91.5">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37">
-        <v>2000000</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="21">
+      <c r="F7" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="19">
         <v>18060</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
+      <c r="I7" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -1790,7 +1902,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FA4B507B-7600-43C0-8070-011EA46FA396}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E8</xm:sqref>
         </x14:dataValidation>
@@ -1812,11 +1924,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="8" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="10" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
-    <col min="11" max="11" width="62" style="6" customWidth="1"/>
+    <col min="11" max="11" width="62" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1829,7 +1941,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1838,196 +1950,196 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>12</v>
+      <c r="K1" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="91.5">
-      <c r="A2" s="51">
+      <c r="A2" s="58">
         <v>126532</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="B2" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7">
         <v>2700742</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="15">
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="13">
         <v>0</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="13">
         <v>1000</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60.75">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="9">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="7">
         <v>2700742</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15">
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13">
         <v>600</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="51" customHeight="1">
+      <c r="A4" s="14">
+        <v>145070</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7">
+        <v>129875</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1">
+      <c r="A5" s="56">
+        <v>1000417</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="7">
+        <v>700000</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="91.5">
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="56"/>
+    </row>
+    <row r="7" spans="1:11" ht="60.75">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="51" customHeight="1">
-      <c r="A4" s="16">
-        <v>145070</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="9">
-        <v>129875</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1">
-      <c r="A5" s="49">
-        <v>1000417</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="9">
-        <v>700000</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="91.5">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="F7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="49"/>
-    </row>
-    <row r="7" spans="1:11" ht="60.75">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="10">
-        <v>2000000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="10">
-        <v>3</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <v>15</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="49"/>
+      <c r="I7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2049,7 +2161,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E8</xm:sqref>
         </x14:dataValidation>
@@ -2061,187 +2173,219 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="54"/>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="54"/>
-      <c r="B4" t="s">
+      <c r="B1" s="48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="55"/>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="55"/>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="55"/>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="55"/>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="56"/>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="57"/>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="57"/>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" s="62" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" s="49" t="s">
         <v>91</v>
       </c>
     </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2490,34 +2634,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21C7E208-C61E-4AAF-AAB6-F295214DA82E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84E41ADD-8945-43E3-A344-2BC56A5A4FF6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84E41ADD-8945-43E3-A344-2BC56A5A4FF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA980070-F43E-4A4D-AE3A-45EBDF1E7F16}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA980070-F43E-4A4D-AE3A-45EBDF1E7F16}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21C7E208-C61E-4AAF-AAB6-F295214DA82E}"/>
 </file>